--- a/instruction-tuning2.xlsx
+++ b/instruction-tuning2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Briefcase\__M授業\_機械学習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0274D0-F717-47DB-B873-538CA502D870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAEDB6C-B6B9-4EAF-A43A-C02A66293858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="90" windowWidth="24615" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,7 +758,7 @@
 ・「指示内容だけを書いたプロンプト」を使った場合（下表の上半分）は、7b-hf, 7b-instruct-hfの両モデルとも、指示の意図（何をして欲しいか）が伝わらないことが多い。下記の比較実験は小規模なので、これだけの結果から、7b-hf, 7b-instruct-hfのどちらが優れているかは結論できないが、両方とも同程度にダメな印象。
 ・これに対して、「指示と応答を明示的に指定したプロンプト」を使うと（下表の下半分）、7b-hf, 7b-instruct-hfの両モデルとも、指示の意図（何をして欲しいか）に沿った出力をする可能性が高くなる。特に、7b-instruct-hfは、プロンプトをこのように構造化した効果が大きく、このような構造化されたプロンプトを使う場合は7b-hf, 7b-instruct-hfの両モデルの出力の適切さに差があると結論できそう。
 ・まとめると、「指示と応答を明示的に指定したプロンプト」はインストラクション・チューニング前後の両モデルに対して有効。インストラクションチューニング後のモデルに対しては特に効果が大きい。
-・ただし、ChatGPT 4oのような最新の大規模モデルは、「指示内容だけを書いたプロンプト」を使った場合でも、指示の意図（何をして欲しいか）に沿った回答をすることができる。</t>
+・ただし、ChatGPT 4oのような最新の大規模モデルは、「指示内容だけを書いたプロンプト」を使った場合でも、指示の意図（何をして欲しいか）に沿った回答をすることができる。system promptにいろいろ書いてあるので、ユーザが入力するプロンプトがシンプルでも大丈夫ということかもしれない。インストラクション・チューニングを高品質の事例でやっている効果や、モデルが大規模である効果、事前学習が大規模で質の高い例でされている、などいろいろな要因が総合的に効いているだろう。</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
     </rPh>
@@ -938,6 +938,57 @@
     </rPh>
     <rPh sb="580" eb="582">
       <t>カイトウ</t>
+    </rPh>
+    <rPh sb="610" eb="611">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="622" eb="624">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="638" eb="641">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <rPh sb="670" eb="673">
+      <t>コウヒンシツ</t>
+    </rPh>
+    <rPh sb="674" eb="676">
+      <t>ジレイ</t>
+    </rPh>
+    <rPh sb="682" eb="684">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="690" eb="693">
+      <t>ダイキボ</t>
+    </rPh>
+    <rPh sb="696" eb="698">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="699" eb="701">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="701" eb="703">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="704" eb="707">
+      <t>ダイキボ</t>
+    </rPh>
+    <rPh sb="708" eb="709">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="710" eb="711">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="712" eb="713">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="727" eb="729">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="730" eb="733">
+      <t>ソウゴウテキ</t>
+    </rPh>
+    <rPh sb="734" eb="735">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1131,38 +1182,38 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1448,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1501,7 +1552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="112.5">
+    <row r="8" spans="1:5" ht="150">
       <c r="A8" s="14" t="s">
         <v>62</v>
       </c>
@@ -1516,20 +1567,20 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="38.25" customHeight="1">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" ht="133.5" customHeight="1">
-      <c r="B11" s="15" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="171.75" customHeight="1">
+      <c r="B11" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5" ht="75">
       <c r="B12" s="1" t="s">
@@ -1547,15 +1598,15 @@
       <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="318.75">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1564,26 +1615,26 @@
       <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="243.75">
-      <c r="A15" s="22"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="187.5">
-      <c r="A16" s="22"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1592,26 +1643,26 @@
       <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="262.5">
-      <c r="A17" s="22"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="356.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1620,26 +1671,26 @@
       <c r="D18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="337.5">
-      <c r="A19" s="22"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="187.5">
-      <c r="A20" s="22"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1648,26 +1699,26 @@
       <c r="D20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="206.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="225">
-      <c r="A22" s="22"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1676,20 +1727,20 @@
       <c r="D22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="225">
-      <c r="A23" s="23"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1697,7 +1748,7 @@
       <c r="A24" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1709,7 +1760,7 @@
     </row>
     <row r="25" spans="1:5" ht="409.5">
       <c r="A25" s="7"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="5" t="s">
         <v>15</v>
       </c>
@@ -1719,7 +1770,7 @@
     </row>
     <row r="26" spans="1:5" ht="409.5">
       <c r="A26" s="7"/>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1731,7 +1782,7 @@
     </row>
     <row r="27" spans="1:5" ht="409.5">
       <c r="A27" s="7"/>
-      <c r="B27" s="17"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="5" t="s">
         <v>18</v>
       </c>
@@ -1741,7 +1792,7 @@
     </row>
     <row r="28" spans="1:5" ht="409.5">
       <c r="A28" s="7"/>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1752,8 +1803,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="409.5">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="5" t="s">
         <v>21</v>
       </c>
@@ -1762,8 +1813,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="75">
-      <c r="A30" s="19"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1774,8 +1825,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="206.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="5" t="s">
         <v>55</v>
       </c>
@@ -1784,8 +1835,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="318.75">
-      <c r="A32" s="19"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1796,8 +1847,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="150">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="4" t="s">
         <v>53</v>
       </c>
@@ -1813,6 +1864,8 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
@@ -1825,8 +1878,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/instruction-tuning2.xlsx
+++ b/instruction-tuning2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Briefcase\__M授業\_機械学習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAEDB6C-B6B9-4EAF-A43A-C02A66293858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B495BF8-9AD8-4611-9269-A50A953F0CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="90" windowWidth="24615" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
